--- a/le15_p6_calls.xlsx
+++ b/le15_p6_calls.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rat Pup call analysis\litter le15 fmr1\p6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rat Pup call analysis\Analysis pathway\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB644B3-784C-4957-B4A2-BE0EC4DB3BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3794480D-EE90-493A-9FA5-31F55C28C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="165" windowWidth="22185" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$284</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$T$284</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="205">
   <si>
     <t>File</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>KO</t>
+  </si>
+  <si>
+    <t>Rat</t>
   </si>
 </sst>
 </file>
@@ -983,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S284"/>
+  <dimension ref="A1:T284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T286" sqref="T286"/>
+    <sheetView tabSelected="1" topLeftCell="C248" workbookViewId="0">
+      <selection activeCell="T230" sqref="T230:T284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,7 +1014,7 @@
     <col min="18" max="18" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1069,8 +1072,11 @@
       <c r="S1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1128,8 +1134,11 @@
       <c r="S2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1187,8 +1196,11 @@
       <c r="S3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1246,8 +1258,11 @@
       <c r="S4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1305,8 +1320,11 @@
       <c r="S5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1364,8 +1382,11 @@
       <c r="S6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1423,8 +1444,11 @@
       <c r="S7" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1482,8 +1506,11 @@
       <c r="S8" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1541,8 +1568,11 @@
       <c r="S9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1600,8 +1630,11 @@
       <c r="S10" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1659,8 +1692,11 @@
       <c r="S11" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1718,8 +1754,11 @@
       <c r="S12" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -1777,8 +1816,11 @@
       <c r="S13" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1836,8 +1878,11 @@
       <c r="S14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1895,8 +1940,11 @@
       <c r="S15" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -1954,8 +2002,11 @@
       <c r="S16" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2013,8 +2064,11 @@
       <c r="S17" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2072,8 +2126,11 @@
       <c r="S18" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -2131,8 +2188,11 @@
       <c r="S19" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -2190,8 +2250,11 @@
       <c r="S20" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2249,8 +2312,11 @@
       <c r="S21" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2308,8 +2374,11 @@
       <c r="S22" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2367,8 +2436,11 @@
       <c r="S23" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -2426,8 +2498,11 @@
       <c r="S24" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -2485,8 +2560,11 @@
       <c r="S25" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -2544,8 +2622,11 @@
       <c r="S26" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -2603,8 +2684,11 @@
       <c r="S27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2662,8 +2746,11 @@
       <c r="S28" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>1</v>
       </c>
@@ -2721,8 +2808,11 @@
       <c r="S29" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2780,8 +2870,11 @@
       <c r="S30" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -2839,8 +2932,11 @@
       <c r="S31" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2898,8 +2994,11 @@
       <c r="S32" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>1</v>
       </c>
@@ -2957,8 +3056,11 @@
       <c r="S33" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -3016,8 +3118,11 @@
       <c r="S34" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -3075,8 +3180,11 @@
       <c r="S35" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>1</v>
       </c>
@@ -3134,8 +3242,11 @@
       <c r="S36" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>1</v>
       </c>
@@ -3193,8 +3304,11 @@
       <c r="S37" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>1</v>
       </c>
@@ -3252,8 +3366,11 @@
       <c r="S38" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -3311,8 +3428,11 @@
       <c r="S39" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -3370,8 +3490,11 @@
       <c r="S40" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -3429,8 +3552,11 @@
       <c r="S41" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -3488,8 +3614,11 @@
       <c r="S42" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -3547,8 +3676,11 @@
       <c r="S43" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>1</v>
       </c>
@@ -3606,8 +3738,11 @@
       <c r="S44" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -3665,8 +3800,11 @@
       <c r="S45" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>1</v>
       </c>
@@ -3724,8 +3862,11 @@
       <c r="S46" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -3783,8 +3924,11 @@
       <c r="S47" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>1</v>
       </c>
@@ -3842,8 +3986,11 @@
       <c r="S48" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>1</v>
       </c>
@@ -3901,8 +4048,11 @@
       <c r="S49" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>1</v>
       </c>
@@ -3960,8 +4110,11 @@
       <c r="S50" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -4019,8 +4172,11 @@
       <c r="S51" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -4078,8 +4234,11 @@
       <c r="S52" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -4137,8 +4296,11 @@
       <c r="S53" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -4196,8 +4358,11 @@
       <c r="S54" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>1</v>
       </c>
@@ -4255,8 +4420,11 @@
       <c r="S55" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -4314,8 +4482,11 @@
       <c r="S56" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>1</v>
       </c>
@@ -4373,8 +4544,11 @@
       <c r="S57" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>1</v>
       </c>
@@ -4432,8 +4606,11 @@
       <c r="S58" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>1</v>
       </c>
@@ -4491,8 +4668,11 @@
       <c r="S59" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -4550,8 +4730,11 @@
       <c r="S60" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -4609,8 +4792,11 @@
       <c r="S61" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>1</v>
       </c>
@@ -4668,8 +4854,11 @@
       <c r="S62" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -4727,8 +4916,11 @@
       <c r="S63" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -4786,8 +4978,11 @@
       <c r="S64" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -4845,8 +5040,11 @@
       <c r="S65" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -4904,8 +5102,11 @@
       <c r="S66" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -4963,8 +5164,11 @@
       <c r="S67" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -5022,8 +5226,11 @@
       <c r="S68" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -5081,8 +5288,11 @@
       <c r="S69" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -5140,8 +5350,11 @@
       <c r="S70" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -5199,8 +5412,11 @@
       <c r="S71" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -5258,8 +5474,11 @@
       <c r="S72" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>2</v>
       </c>
@@ -5317,8 +5536,11 @@
       <c r="S73" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>2</v>
       </c>
@@ -5376,8 +5598,11 @@
       <c r="S74" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>2</v>
       </c>
@@ -5435,8 +5660,11 @@
       <c r="S75" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>2</v>
       </c>
@@ -5494,8 +5722,11 @@
       <c r="S76" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -5553,8 +5784,11 @@
       <c r="S77" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="S78" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="S79" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -5730,8 +5970,11 @@
       <c r="S80" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -5789,8 +6032,11 @@
       <c r="S81" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -5848,8 +6094,11 @@
       <c r="S82" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -5907,8 +6156,11 @@
       <c r="S83" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>2</v>
       </c>
@@ -5966,8 +6218,11 @@
       <c r="S84" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -6025,8 +6280,11 @@
       <c r="S85" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>2</v>
       </c>
@@ -6084,8 +6342,11 @@
       <c r="S86" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>2</v>
       </c>
@@ -6143,8 +6404,11 @@
       <c r="S87" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -6202,8 +6466,11 @@
       <c r="S88" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>2</v>
       </c>
@@ -6261,8 +6528,11 @@
       <c r="S89" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -6320,8 +6590,11 @@
       <c r="S90" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>2</v>
       </c>
@@ -6379,8 +6652,11 @@
       <c r="S91" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>2</v>
       </c>
@@ -6438,8 +6714,11 @@
       <c r="S92" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>2</v>
       </c>
@@ -6497,8 +6776,11 @@
       <c r="S93" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>2</v>
       </c>
@@ -6556,8 +6838,11 @@
       <c r="S94" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>2</v>
       </c>
@@ -6615,8 +6900,11 @@
       <c r="S95" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>2</v>
       </c>
@@ -6674,8 +6962,11 @@
       <c r="S96" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -6733,8 +7024,11 @@
       <c r="S97" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>2</v>
       </c>
@@ -6792,8 +7086,11 @@
       <c r="S98" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>2</v>
       </c>
@@ -6851,8 +7148,11 @@
       <c r="S99" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>2</v>
       </c>
@@ -6910,8 +7210,11 @@
       <c r="S100" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>2</v>
       </c>
@@ -6969,8 +7272,11 @@
       <c r="S101" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>2</v>
       </c>
@@ -7028,8 +7334,11 @@
       <c r="S102" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>2</v>
       </c>
@@ -7087,8 +7396,11 @@
       <c r="S103" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -7146,8 +7458,11 @@
       <c r="S104" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>2</v>
       </c>
@@ -7205,8 +7520,11 @@
       <c r="S105" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>2</v>
       </c>
@@ -7264,8 +7582,11 @@
       <c r="S106" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>2</v>
       </c>
@@ -7323,8 +7644,11 @@
       <c r="S107" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>2</v>
       </c>
@@ -7382,8 +7706,11 @@
       <c r="S108" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -7441,8 +7768,11 @@
       <c r="S109" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>2</v>
       </c>
@@ -7500,8 +7830,11 @@
       <c r="S110" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -7559,8 +7892,11 @@
       <c r="S111" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>3</v>
       </c>
@@ -7618,8 +7954,11 @@
       <c r="S112" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>3</v>
       </c>
@@ -7677,8 +8016,11 @@
       <c r="S113" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="114" spans="1:19">
+      <c r="T113">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>3</v>
       </c>
@@ -7736,8 +8078,11 @@
       <c r="S114" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="115" spans="1:19">
+      <c r="T114">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>3</v>
       </c>
@@ -7795,8 +8140,11 @@
       <c r="S115" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="116" spans="1:19">
+      <c r="T115">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>3</v>
       </c>
@@ -7854,8 +8202,11 @@
       <c r="S116" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="117" spans="1:19">
+      <c r="T116">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>3</v>
       </c>
@@ -7913,8 +8264,11 @@
       <c r="S117" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="118" spans="1:19">
+      <c r="T117">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>3</v>
       </c>
@@ -7972,8 +8326,11 @@
       <c r="S118" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="119" spans="1:19">
+      <c r="T118">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>3</v>
       </c>
@@ -8031,8 +8388,11 @@
       <c r="S119" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="120" spans="1:19">
+      <c r="T119">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>3</v>
       </c>
@@ -8090,8 +8450,11 @@
       <c r="S120" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="121" spans="1:19">
+      <c r="T120">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>3</v>
       </c>
@@ -8149,8 +8512,11 @@
       <c r="S121" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="122" spans="1:19">
+      <c r="T121">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>3</v>
       </c>
@@ -8208,8 +8574,11 @@
       <c r="S122" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="123" spans="1:19">
+      <c r="T122">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>3</v>
       </c>
@@ -8267,8 +8636,11 @@
       <c r="S123" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="124" spans="1:19">
+      <c r="T123">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>3</v>
       </c>
@@ -8326,8 +8698,11 @@
       <c r="S124" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="125" spans="1:19">
+      <c r="T124">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>3</v>
       </c>
@@ -8385,8 +8760,11 @@
       <c r="S125" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="126" spans="1:19">
+      <c r="T125">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>3</v>
       </c>
@@ -8444,8 +8822,11 @@
       <c r="S126" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="127" spans="1:19">
+      <c r="T126">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>3</v>
       </c>
@@ -8503,8 +8884,11 @@
       <c r="S127" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="128" spans="1:19">
+      <c r="T127">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>3</v>
       </c>
@@ -8562,8 +8946,11 @@
       <c r="S128" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="129" spans="1:19">
+      <c r="T128">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>3</v>
       </c>
@@ -8621,8 +9008,11 @@
       <c r="S129" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="130" spans="1:19">
+      <c r="T129">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>3</v>
       </c>
@@ -8680,8 +9070,11 @@
       <c r="S130" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="131" spans="1:19">
+      <c r="T130">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>3</v>
       </c>
@@ -8739,8 +9132,11 @@
       <c r="S131" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="132" spans="1:19">
+      <c r="T131">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>3</v>
       </c>
@@ -8798,8 +9194,11 @@
       <c r="S132" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="133" spans="1:19">
+      <c r="T132">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>3</v>
       </c>
@@ -8857,8 +9256,11 @@
       <c r="S133" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="134" spans="1:19">
+      <c r="T133">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>3</v>
       </c>
@@ -8916,8 +9318,11 @@
       <c r="S134" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="135" spans="1:19">
+      <c r="T134">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>3</v>
       </c>
@@ -8975,8 +9380,11 @@
       <c r="S135" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="136" spans="1:19">
+      <c r="T135">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>3</v>
       </c>
@@ -9034,8 +9442,11 @@
       <c r="S136" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="137" spans="1:19">
+      <c r="T136">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>3</v>
       </c>
@@ -9093,8 +9504,11 @@
       <c r="S137" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="138" spans="1:19">
+      <c r="T137">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>3</v>
       </c>
@@ -9152,8 +9566,11 @@
       <c r="S138" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="139" spans="1:19">
+      <c r="T138">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>3</v>
       </c>
@@ -9211,8 +9628,11 @@
       <c r="S139" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="140" spans="1:19">
+      <c r="T139">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>3</v>
       </c>
@@ -9270,8 +9690,11 @@
       <c r="S140" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="141" spans="1:19">
+      <c r="T140">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>3</v>
       </c>
@@ -9329,8 +9752,11 @@
       <c r="S141" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="142" spans="1:19">
+      <c r="T141">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>3</v>
       </c>
@@ -9388,8 +9814,11 @@
       <c r="S142" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="143" spans="1:19">
+      <c r="T142">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>3</v>
       </c>
@@ -9447,8 +9876,11 @@
       <c r="S143" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="144" spans="1:19">
+      <c r="T143">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>3</v>
       </c>
@@ -9506,8 +9938,11 @@
       <c r="S144" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="145" spans="1:19">
+      <c r="T144">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>3</v>
       </c>
@@ -9565,8 +10000,11 @@
       <c r="S145" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="146" spans="1:19">
+      <c r="T145">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>3</v>
       </c>
@@ -9624,8 +10062,11 @@
       <c r="S146" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="147" spans="1:19">
+      <c r="T146">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>3</v>
       </c>
@@ -9683,8 +10124,11 @@
       <c r="S147" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="148" spans="1:19">
+      <c r="T147">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>3</v>
       </c>
@@ -9742,8 +10186,11 @@
       <c r="S148" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="149" spans="1:19">
+      <c r="T148">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>3</v>
       </c>
@@ -9801,8 +10248,11 @@
       <c r="S149" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="150" spans="1:19">
+      <c r="T149">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>3</v>
       </c>
@@ -9860,8 +10310,11 @@
       <c r="S150" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="151" spans="1:19">
+      <c r="T150">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>3</v>
       </c>
@@ -9919,8 +10372,11 @@
       <c r="S151" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="152" spans="1:19">
+      <c r="T151">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -9978,8 +10434,11 @@
       <c r="S152" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="153" spans="1:19">
+      <c r="T152">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>3</v>
       </c>
@@ -10037,8 +10496,11 @@
       <c r="S153" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="154" spans="1:19">
+      <c r="T153">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -10096,8 +10558,11 @@
       <c r="S154" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="155" spans="1:19">
+      <c r="T154">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -10155,8 +10620,11 @@
       <c r="S155" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="156" spans="1:19">
+      <c r="T155">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -10214,8 +10682,11 @@
       <c r="S156" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="157" spans="1:19">
+      <c r="T156">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -10273,8 +10744,11 @@
       <c r="S157" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="158" spans="1:19">
+      <c r="T157">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -10332,8 +10806,11 @@
       <c r="S158" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="159" spans="1:19">
+      <c r="T158">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -10391,8 +10868,11 @@
       <c r="S159" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="160" spans="1:19">
+      <c r="T159">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -10450,8 +10930,11 @@
       <c r="S160" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="161" spans="1:19">
+      <c r="T160">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -10509,8 +10992,11 @@
       <c r="S161" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="162" spans="1:19">
+      <c r="T161">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>3</v>
       </c>
@@ -10568,8 +11054,11 @@
       <c r="S162" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="163" spans="1:19">
+      <c r="T162">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -10627,8 +11116,11 @@
       <c r="S163" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="164" spans="1:19">
+      <c r="T163">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -10686,8 +11178,11 @@
       <c r="S164" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="165" spans="1:19">
+      <c r="T164">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -10745,8 +11240,11 @@
       <c r="S165" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="166" spans="1:19">
+      <c r="T165">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -10804,8 +11302,11 @@
       <c r="S166" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="167" spans="1:19">
+      <c r="T166">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>4</v>
       </c>
@@ -10863,8 +11364,11 @@
       <c r="S167" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="168" spans="1:19">
+      <c r="T167">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>4</v>
       </c>
@@ -10922,8 +11426,11 @@
       <c r="S168" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="169" spans="1:19">
+      <c r="T168">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>4</v>
       </c>
@@ -10981,8 +11488,11 @@
       <c r="S169" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="170" spans="1:19">
+      <c r="T169">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>4</v>
       </c>
@@ -11040,8 +11550,11 @@
       <c r="S170" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="171" spans="1:19">
+      <c r="T170">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -11099,8 +11612,11 @@
       <c r="S171" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="172" spans="1:19">
+      <c r="T171">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>4</v>
       </c>
@@ -11158,8 +11674,11 @@
       <c r="S172" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="173" spans="1:19">
+      <c r="T172">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>4</v>
       </c>
@@ -11217,8 +11736,11 @@
       <c r="S173" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="174" spans="1:19">
+      <c r="T173">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>4</v>
       </c>
@@ -11276,8 +11798,11 @@
       <c r="S174" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="175" spans="1:19">
+      <c r="T174">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>4</v>
       </c>
@@ -11335,8 +11860,11 @@
       <c r="S175" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="176" spans="1:19">
+      <c r="T175">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -11394,8 +11922,11 @@
       <c r="S176" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="177" spans="1:19">
+      <c r="T176">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>4</v>
       </c>
@@ -11453,8 +11984,11 @@
       <c r="S177" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="178" spans="1:19">
+      <c r="T177">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -11512,8 +12046,11 @@
       <c r="S178" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="179" spans="1:19">
+      <c r="T178">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -11571,8 +12108,11 @@
       <c r="S179" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="180" spans="1:19">
+      <c r="T179">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>4</v>
       </c>
@@ -11630,8 +12170,11 @@
       <c r="S180" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="181" spans="1:19">
+      <c r="T180">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -11689,8 +12232,11 @@
       <c r="S181" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="182" spans="1:19">
+      <c r="T181">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>4</v>
       </c>
@@ -11748,8 +12294,11 @@
       <c r="S182" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="183" spans="1:19">
+      <c r="T182">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>4</v>
       </c>
@@ -11807,8 +12356,11 @@
       <c r="S183" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="184" spans="1:19">
+      <c r="T183">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>4</v>
       </c>
@@ -11866,8 +12418,11 @@
       <c r="S184" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="185" spans="1:19">
+      <c r="T184">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -11925,8 +12480,11 @@
       <c r="S185" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="186" spans="1:19">
+      <c r="T185">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>4</v>
       </c>
@@ -11984,8 +12542,11 @@
       <c r="S186" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="187" spans="1:19">
+      <c r="T186">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -12043,8 +12604,11 @@
       <c r="S187" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="188" spans="1:19">
+      <c r="T187">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>4</v>
       </c>
@@ -12102,8 +12666,11 @@
       <c r="S188" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="189" spans="1:19">
+      <c r="T188">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>4</v>
       </c>
@@ -12161,8 +12728,11 @@
       <c r="S189" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="190" spans="1:19">
+      <c r="T189">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>4</v>
       </c>
@@ -12220,8 +12790,11 @@
       <c r="S190" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="191" spans="1:19">
+      <c r="T190">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -12279,8 +12852,11 @@
       <c r="S191" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="192" spans="1:19">
+      <c r="T191">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -12338,8 +12914,11 @@
       <c r="S192" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="193" spans="1:19">
+      <c r="T192">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
         <v>4</v>
       </c>
@@ -12397,8 +12976,11 @@
       <c r="S193" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="194" spans="1:19">
+      <c r="T193">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>4</v>
       </c>
@@ -12456,8 +13038,11 @@
       <c r="S194" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="195" spans="1:19">
+      <c r="T194">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
         <v>4</v>
       </c>
@@ -12515,8 +13100,11 @@
       <c r="S195" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="196" spans="1:19">
+      <c r="T195">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
         <v>4</v>
       </c>
@@ -12574,8 +13162,11 @@
       <c r="S196" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="197" spans="1:19">
+      <c r="T196">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
         <v>4</v>
       </c>
@@ -12633,8 +13224,11 @@
       <c r="S197" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="198" spans="1:19">
+      <c r="T197">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -12692,8 +13286,11 @@
       <c r="S198" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="199" spans="1:19">
+      <c r="T198">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="199" spans="1:20">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -12751,8 +13348,11 @@
       <c r="S199" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="200" spans="1:19">
+      <c r="T199">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="200" spans="1:20">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -12810,8 +13410,11 @@
       <c r="S200" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="201" spans="1:19">
+      <c r="T200">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="201" spans="1:20">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -12869,8 +13472,11 @@
       <c r="S201" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="202" spans="1:19">
+      <c r="T201">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="202" spans="1:20">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -12928,8 +13534,11 @@
       <c r="S202" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="203" spans="1:19">
+      <c r="T202">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="203" spans="1:20">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -12987,8 +13596,11 @@
       <c r="S203" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="204" spans="1:19">
+      <c r="T203">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="204" spans="1:20">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -13046,8 +13658,11 @@
       <c r="S204" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:19">
+      <c r="T204">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="205" spans="1:20">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -13105,8 +13720,11 @@
       <c r="S205" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="206" spans="1:19">
+      <c r="T205">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="206" spans="1:20">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -13164,8 +13782,11 @@
       <c r="S206" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="207" spans="1:19">
+      <c r="T206">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="207" spans="1:20">
       <c r="A207" t="s">
         <v>6</v>
       </c>
@@ -13223,8 +13844,11 @@
       <c r="S207" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="208" spans="1:19">
+      <c r="T207">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="208" spans="1:20">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -13282,8 +13906,11 @@
       <c r="S208" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="209" spans="1:19">
+      <c r="T208">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="209" spans="1:20">
       <c r="A209" t="s">
         <v>6</v>
       </c>
@@ -13341,8 +13968,11 @@
       <c r="S209" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="210" spans="1:19">
+      <c r="T209">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="210" spans="1:20">
       <c r="A210" t="s">
         <v>6</v>
       </c>
@@ -13400,8 +14030,11 @@
       <c r="S210" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="211" spans="1:19">
+      <c r="T210">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20">
       <c r="A211" t="s">
         <v>6</v>
       </c>
@@ -13459,8 +14092,11 @@
       <c r="S211" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="212" spans="1:19">
+      <c r="T211">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="212" spans="1:20">
       <c r="A212" t="s">
         <v>6</v>
       </c>
@@ -13518,8 +14154,11 @@
       <c r="S212" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="213" spans="1:19">
+      <c r="T212">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="213" spans="1:20">
       <c r="A213" t="s">
         <v>6</v>
       </c>
@@ -13577,8 +14216,11 @@
       <c r="S213" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="214" spans="1:19">
+      <c r="T213">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="214" spans="1:20">
       <c r="A214" t="s">
         <v>6</v>
       </c>
@@ -13636,8 +14278,11 @@
       <c r="S214" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="215" spans="1:19">
+      <c r="T214">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="215" spans="1:20">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -13695,8 +14340,11 @@
       <c r="S215" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="216" spans="1:19">
+      <c r="T215">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="216" spans="1:20">
       <c r="A216" t="s">
         <v>6</v>
       </c>
@@ -13754,8 +14402,11 @@
       <c r="S216" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="217" spans="1:19">
+      <c r="T216">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20">
       <c r="A217" t="s">
         <v>6</v>
       </c>
@@ -13813,8 +14464,11 @@
       <c r="S217" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="218" spans="1:19">
+      <c r="T217">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>6</v>
       </c>
@@ -13872,8 +14526,11 @@
       <c r="S218" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="219" spans="1:19">
+      <c r="T218">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>7</v>
       </c>
@@ -13931,8 +14588,11 @@
       <c r="S219" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="220" spans="1:19">
+      <c r="T219">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="220" spans="1:20">
       <c r="A220" t="s">
         <v>7</v>
       </c>
@@ -13990,8 +14650,11 @@
       <c r="S220" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="221" spans="1:19">
+      <c r="T220">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="221" spans="1:20">
       <c r="A221" t="s">
         <v>7</v>
       </c>
@@ -14049,8 +14712,11 @@
       <c r="S221" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="222" spans="1:19">
+      <c r="T221">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="222" spans="1:20">
       <c r="A222" t="s">
         <v>7</v>
       </c>
@@ -14108,8 +14774,11 @@
       <c r="S222" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="223" spans="1:19">
+      <c r="T222">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="223" spans="1:20">
       <c r="A223" t="s">
         <v>7</v>
       </c>
@@ -14167,8 +14836,11 @@
       <c r="S223" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="224" spans="1:19">
+      <c r="T223">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="224" spans="1:20">
       <c r="A224" t="s">
         <v>7</v>
       </c>
@@ -14226,8 +14898,11 @@
       <c r="S224" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="225" spans="1:19">
+      <c r="T224">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="225" spans="1:20">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -14285,8 +14960,11 @@
       <c r="S225" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="226" spans="1:19">
+      <c r="T225">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="226" spans="1:20">
       <c r="A226" t="s">
         <v>7</v>
       </c>
@@ -14344,8 +15022,11 @@
       <c r="S226" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="227" spans="1:19">
+      <c r="T226">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="227" spans="1:20">
       <c r="A227" t="s">
         <v>7</v>
       </c>
@@ -14403,8 +15084,11 @@
       <c r="S227" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="228" spans="1:19">
+      <c r="T227">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="228" spans="1:20">
       <c r="A228" t="s">
         <v>7</v>
       </c>
@@ -14462,8 +15146,11 @@
       <c r="S228" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="229" spans="1:19">
+      <c r="T228">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="229" spans="1:20">
       <c r="A229" t="s">
         <v>8</v>
       </c>
@@ -14521,8 +15208,11 @@
       <c r="S229" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="230" spans="1:19">
+      <c r="T229">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="230" spans="1:20">
       <c r="A230" t="s">
         <v>8</v>
       </c>
@@ -14580,8 +15270,11 @@
       <c r="S230" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="231" spans="1:19">
+      <c r="T230">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="231" spans="1:20">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -14639,8 +15332,11 @@
       <c r="S231" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="232" spans="1:19">
+      <c r="T231">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="232" spans="1:20">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -14698,8 +15394,11 @@
       <c r="S232" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="233" spans="1:19">
+      <c r="T232">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="233" spans="1:20">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -14757,8 +15456,11 @@
       <c r="S233" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="234" spans="1:19">
+      <c r="T233">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="234" spans="1:20">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -14816,8 +15518,11 @@
       <c r="S234" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="235" spans="1:19">
+      <c r="T234">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="235" spans="1:20">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -14875,8 +15580,11 @@
       <c r="S235" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="236" spans="1:19">
+      <c r="T235">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="236" spans="1:20">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -14934,8 +15642,11 @@
       <c r="S236" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="237" spans="1:19">
+      <c r="T236">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="237" spans="1:20">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -14993,8 +15704,11 @@
       <c r="S237" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="238" spans="1:19">
+      <c r="T237">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -15052,8 +15766,11 @@
       <c r="S238" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="239" spans="1:19">
+      <c r="T238">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -15111,8 +15828,11 @@
       <c r="S239" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="240" spans="1:19">
+      <c r="T239">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -15170,8 +15890,11 @@
       <c r="S240" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="241" spans="1:19">
+      <c r="T240">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="241" spans="1:20">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -15229,8 +15952,11 @@
       <c r="S241" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="242" spans="1:19">
+      <c r="T241">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="242" spans="1:20">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -15288,8 +16014,11 @@
       <c r="S242" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="243" spans="1:19">
+      <c r="T242">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="243" spans="1:20">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -15347,8 +16076,11 @@
       <c r="S243" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="244" spans="1:19">
+      <c r="T243">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="244" spans="1:20">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -15406,8 +16138,11 @@
       <c r="S244" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="245" spans="1:19">
+      <c r="T244">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="245" spans="1:20">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -15465,8 +16200,11 @@
       <c r="S245" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="246" spans="1:19">
+      <c r="T245">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="246" spans="1:20">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -15524,8 +16262,11 @@
       <c r="S246" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="247" spans="1:19">
+      <c r="T246">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="247" spans="1:20">
       <c r="A247" t="s">
         <v>8</v>
       </c>
@@ -15583,8 +16324,11 @@
       <c r="S247" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="248" spans="1:19">
+      <c r="T247">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="248" spans="1:20">
       <c r="A248" t="s">
         <v>8</v>
       </c>
@@ -15642,8 +16386,11 @@
       <c r="S248" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="249" spans="1:19">
+      <c r="T248">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="249" spans="1:20">
       <c r="A249" t="s">
         <v>8</v>
       </c>
@@ -15701,8 +16448,11 @@
       <c r="S249" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="250" spans="1:19">
+      <c r="T249">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="250" spans="1:20">
       <c r="A250" t="s">
         <v>8</v>
       </c>
@@ -15760,8 +16510,11 @@
       <c r="S250" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="251" spans="1:19">
+      <c r="T250">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="251" spans="1:20">
       <c r="A251" t="s">
         <v>8</v>
       </c>
@@ -15819,8 +16572,11 @@
       <c r="S251" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="252" spans="1:19">
+      <c r="T251">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="252" spans="1:20">
       <c r="A252" t="s">
         <v>8</v>
       </c>
@@ -15878,8 +16634,11 @@
       <c r="S252" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="253" spans="1:19">
+      <c r="T252">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="253" spans="1:20">
       <c r="A253" t="s">
         <v>8</v>
       </c>
@@ -15937,8 +16696,11 @@
       <c r="S253" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="254" spans="1:19">
+      <c r="T253">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="254" spans="1:20">
       <c r="A254" t="s">
         <v>8</v>
       </c>
@@ -15996,8 +16758,11 @@
       <c r="S254" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="255" spans="1:19">
+      <c r="T254">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="255" spans="1:20">
       <c r="A255" t="s">
         <v>8</v>
       </c>
@@ -16055,8 +16820,11 @@
       <c r="S255" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="256" spans="1:19">
+      <c r="T255">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="256" spans="1:20">
       <c r="A256" t="s">
         <v>8</v>
       </c>
@@ -16114,8 +16882,11 @@
       <c r="S256" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="257" spans="1:19">
+      <c r="T256">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="257" spans="1:20">
       <c r="A257" t="s">
         <v>8</v>
       </c>
@@ -16173,8 +16944,11 @@
       <c r="S257" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="258" spans="1:19">
+      <c r="T257">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="258" spans="1:20">
       <c r="A258" t="s">
         <v>8</v>
       </c>
@@ -16232,8 +17006,11 @@
       <c r="S258" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="259" spans="1:19">
+      <c r="T258">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="259" spans="1:20">
       <c r="A259" t="s">
         <v>8</v>
       </c>
@@ -16291,8 +17068,11 @@
       <c r="S259" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="260" spans="1:19">
+      <c r="T259">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="260" spans="1:20">
       <c r="A260" t="s">
         <v>9</v>
       </c>
@@ -16350,8 +17130,11 @@
       <c r="S260" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="261" spans="1:19">
+      <c r="T260">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="261" spans="1:20">
       <c r="A261" t="s">
         <v>9</v>
       </c>
@@ -16409,8 +17192,11 @@
       <c r="S261" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="262" spans="1:19">
+      <c r="T261">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20">
       <c r="A262" t="s">
         <v>9</v>
       </c>
@@ -16468,8 +17254,11 @@
       <c r="S262" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="263" spans="1:19">
+      <c r="T262">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="263" spans="1:20">
       <c r="A263" t="s">
         <v>9</v>
       </c>
@@ -16527,8 +17316,11 @@
       <c r="S263" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="264" spans="1:19">
+      <c r="T263">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="264" spans="1:20">
       <c r="A264" t="s">
         <v>9</v>
       </c>
@@ -16586,8 +17378,11 @@
       <c r="S264" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="265" spans="1:19">
+      <c r="T264">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="265" spans="1:20">
       <c r="A265" t="s">
         <v>9</v>
       </c>
@@ -16645,8 +17440,11 @@
       <c r="S265" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="266" spans="1:19">
+      <c r="T265">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="266" spans="1:20">
       <c r="A266" t="s">
         <v>9</v>
       </c>
@@ -16704,8 +17502,11 @@
       <c r="S266" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="267" spans="1:19">
+      <c r="T266">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="267" spans="1:20">
       <c r="A267" t="s">
         <v>9</v>
       </c>
@@ -16763,8 +17564,11 @@
       <c r="S267" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="268" spans="1:19">
+      <c r="T267">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="268" spans="1:20">
       <c r="A268" t="s">
         <v>9</v>
       </c>
@@ -16822,8 +17626,11 @@
       <c r="S268" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="269" spans="1:19">
+      <c r="T268">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="269" spans="1:20">
       <c r="A269" t="s">
         <v>9</v>
       </c>
@@ -16881,8 +17688,11 @@
       <c r="S269" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="270" spans="1:19">
+      <c r="T269">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="270" spans="1:20">
       <c r="A270" t="s">
         <v>9</v>
       </c>
@@ -16940,8 +17750,11 @@
       <c r="S270" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="271" spans="1:19">
+      <c r="T270">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="271" spans="1:20">
       <c r="A271" t="s">
         <v>9</v>
       </c>
@@ -16999,8 +17812,11 @@
       <c r="S271" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="272" spans="1:19">
+      <c r="T271">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="272" spans="1:20">
       <c r="A272" t="s">
         <v>9</v>
       </c>
@@ -17058,8 +17874,11 @@
       <c r="S272" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="273" spans="1:19">
+      <c r="T272">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="273" spans="1:20">
       <c r="A273" t="s">
         <v>9</v>
       </c>
@@ -17117,8 +17936,11 @@
       <c r="S273" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="274" spans="1:19">
+      <c r="T273">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="274" spans="1:20">
       <c r="A274" t="s">
         <v>9</v>
       </c>
@@ -17176,8 +17998,11 @@
       <c r="S274" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="275" spans="1:19">
+      <c r="T274">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="275" spans="1:20">
       <c r="A275" t="s">
         <v>9</v>
       </c>
@@ -17235,8 +18060,11 @@
       <c r="S275" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="276" spans="1:19">
+      <c r="T275">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="276" spans="1:20">
       <c r="A276" t="s">
         <v>9</v>
       </c>
@@ -17294,8 +18122,11 @@
       <c r="S276" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="277" spans="1:19">
+      <c r="T276">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="277" spans="1:20">
       <c r="A277" t="s">
         <v>9</v>
       </c>
@@ -17353,8 +18184,11 @@
       <c r="S277" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="278" spans="1:19">
+      <c r="T277">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="278" spans="1:20">
       <c r="A278" t="s">
         <v>9</v>
       </c>
@@ -17412,8 +18246,11 @@
       <c r="S278" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="279" spans="1:19">
+      <c r="T278">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="279" spans="1:20">
       <c r="A279" t="s">
         <v>9</v>
       </c>
@@ -17471,8 +18308,11 @@
       <c r="S279" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="280" spans="1:19">
+      <c r="T279">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="280" spans="1:20">
       <c r="A280" t="s">
         <v>9</v>
       </c>
@@ -17530,8 +18370,11 @@
       <c r="S280" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="281" spans="1:19">
+      <c r="T280">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="281" spans="1:20">
       <c r="A281" t="s">
         <v>9</v>
       </c>
@@ -17589,8 +18432,11 @@
       <c r="S281" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="282" spans="1:19">
+      <c r="T281">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="282" spans="1:20">
       <c r="A282" t="s">
         <v>9</v>
       </c>
@@ -17648,8 +18494,11 @@
       <c r="S282" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="283" spans="1:19">
+      <c r="T282">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="283" spans="1:20">
       <c r="A283" t="s">
         <v>9</v>
       </c>
@@ -17707,8 +18556,11 @@
       <c r="S283" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="284" spans="1:19">
+      <c r="T283">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="284" spans="1:20">
       <c r="A284" t="s">
         <v>9</v>
       </c>
@@ -17766,8 +18618,12 @@
       <c r="S284" t="s">
         <v>203</v>
       </c>
+      <c r="T284">
+        <v>568</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T284" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>